--- a/xlsx/定价策略_intext.xlsx
+++ b/xlsx/定价策略_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>定价策略</t>
   </si>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E9%81%93%E5%BE%B7</t>
   </si>
   <si>
-    <t>行銷道德</t>
+    <t>行销道德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E8%AA%BF%E6%9F%A5</t>
   </si>
   <si>
-    <t>市場調查</t>
+    <t>市场调查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E5%88%92%E5%88%86</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>廣告</t>
+    <t>广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%89%8C</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%83%E9%8A%B7%E6%B4%BB%E5%8B%95</t>
   </si>
   <si>
-    <t>促銷活動</t>
+    <t>促销活动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E9%8A%B7%E5%93%A1</t>
   </si>
   <si>
-    <t>推銷員</t>
+    <t>推销员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%95%88%E8%90%A5%E9%94%80</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%AE%E5%85%A5%E6%80%A7%E8%A1%8C%E9%8A%B7</t>
   </si>
   <si>
-    <t>置入性行銷</t>
+    <t>置入性行销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%88%B7</t>
@@ -167,31 +167,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%B7%E5%94%AE%E6%99%82%E9%BB%9E%E6%83%85%E5%A0%B1%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>銷售時點情報系統</t>
+    <t>销售时点情报系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%88%E5%93%81</t>
   </si>
   <si>
-    <t>贈品</t>
+    <t>赠品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E8%A1%8C%E9%8A%B7</t>
   </si>
   <si>
-    <t>數位行銷</t>
+    <t>数位行销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>廣告遊戲</t>
+    <t>广告游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E5%BB%A3</t>
   </si>
   <si>
-    <t>推廣</t>
+    <t>推广</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%A8%80%E4%BA%BA</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%A4%E5%A3%93%E5%BC%8F%E6%8E%A8%E9%8A%B7</t>
   </si>
   <si>
-    <t>層壓式推銷</t>
+    <t>层压式推销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%85%E6%AF%92%E8%90%A5%E9%94%80</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7</t>
   </si>
   <si>
-    <t>購買</t>
+    <t>购买</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B6%E5%94%AE%E5%95%86</t>
@@ -281,13 +281,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E5%91%8A</t>
   </si>
   <si>
-    <t>广告</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E9%9A%9B%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>邊際利潤</t>
+    <t>边际利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%B0%84</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E8%A1%A8%E6%A9%9F</t>
   </si>
   <si>
-    <t>印表機</t>
+    <t>打印机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E7%9B%8A%E7%AE%A1%E7%90%86</t>
@@ -1923,7 +1920,7 @@
         <v>87</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="G44" t="n">
         <v>6</v>
@@ -1949,10 +1946,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1978,10 +1975,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2007,10 +2004,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2036,10 +2033,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
